--- a/notebooks/forecasts.xlsx
+++ b/notebooks/forecasts.xlsx
@@ -526,20 +526,20 @@
         <v>0.1405409340055041</v>
       </c>
       <c r="I2" t="n">
-        <v>75.49300147759851</v>
+        <v>81.02052952111366</v>
       </c>
       <c r="J2" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>1.19705291903287</v>
+        <v>8.60660793714969</v>
       </c>
       <c r="L2" t="n">
         <v>299</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -574,20 +574,20 @@
         <v>0.1405409340055041</v>
       </c>
       <c r="I3" t="n">
-        <v>81.02052952111366</v>
+        <v>80.82226308356501</v>
       </c>
       <c r="J3" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>8.60660793714969</v>
+        <v>8.34083523266087</v>
       </c>
       <c r="L3" t="n">
         <v>299</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -622,20 +622,20 @@
         <v>0.1405409340055041</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82226308356501</v>
+        <v>75.49300147759851</v>
       </c>
       <c r="J4" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>8.34083523266087</v>
+        <v>1.19705291903287</v>
       </c>
       <c r="L4" t="n">
         <v>299</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -670,20 +670,20 @@
         <v>10.92983149063159</v>
       </c>
       <c r="I5" t="n">
-        <v>4836.284303619578</v>
+        <v>5360.359651778394</v>
       </c>
       <c r="J5" t="n">
         <v>4904.18</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.384445440021009</v>
+        <v>9.301853761044532</v>
       </c>
       <c r="L5" t="n">
         <v>60</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -718,20 +718,20 @@
         <v>10.92983149063159</v>
       </c>
       <c r="I6" t="n">
-        <v>5360.359651778394</v>
+        <v>5354.967304643807</v>
       </c>
       <c r="J6" t="n">
         <v>4904.18</v>
       </c>
       <c r="K6" t="n">
-        <v>9.301853761044532</v>
+        <v>9.19189965792051</v>
       </c>
       <c r="L6" t="n">
         <v>60</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -766,20 +766,20 @@
         <v>10.92983149063159</v>
       </c>
       <c r="I7" t="n">
-        <v>5354.967304643807</v>
+        <v>4836.284303619578</v>
       </c>
       <c r="J7" t="n">
         <v>4904.18</v>
       </c>
       <c r="K7" t="n">
-        <v>9.19189965792051</v>
+        <v>-1.384445440021009</v>
       </c>
       <c r="L7" t="n">
         <v>60</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -814,20 +814,20 @@
         <v>4.497981070194988</v>
       </c>
       <c r="I8" t="n">
-        <v>1980.754385343763</v>
+        <v>2092.227148757172</v>
       </c>
       <c r="J8" t="n">
         <v>1961.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9816153629244484</v>
+        <v>6.664651988639947</v>
       </c>
       <c r="L8" t="n">
         <v>2746</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -862,20 +862,20 @@
         <v>4.497981070194988</v>
       </c>
       <c r="I9" t="n">
-        <v>2092.227148757172</v>
+        <v>2111.070561493564</v>
       </c>
       <c r="J9" t="n">
         <v>1961.5</v>
       </c>
       <c r="K9" t="n">
-        <v>6.664651988639947</v>
+        <v>7.625315396052179</v>
       </c>
       <c r="L9" t="n">
         <v>2746</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -910,20 +910,20 @@
         <v>4.497981070194988</v>
       </c>
       <c r="I10" t="n">
-        <v>2111.070561493564</v>
+        <v>1980.754385343763</v>
       </c>
       <c r="J10" t="n">
         <v>1961.5</v>
       </c>
       <c r="K10" t="n">
-        <v>7.625315396052179</v>
+        <v>0.9816153629244484</v>
       </c>
       <c r="L10" t="n">
         <v>2746</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -958,20 +958,20 @@
         <v>0.3911677258037258</v>
       </c>
       <c r="I11" t="n">
-        <v>1337.77672330258</v>
+        <v>1301.370431888752</v>
       </c>
       <c r="J11" t="n">
         <v>1272.79</v>
       </c>
       <c r="K11" t="n">
-        <v>5.105848042692029</v>
+        <v>2.24549469187787</v>
       </c>
       <c r="L11" t="n">
         <v>4017</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1006,20 +1006,20 @@
         <v>0.3911677258037258</v>
       </c>
       <c r="I12" t="n">
-        <v>1301.370431888752</v>
+        <v>1284.163675947378</v>
       </c>
       <c r="J12" t="n">
         <v>1272.79</v>
       </c>
       <c r="K12" t="n">
-        <v>2.24549469187787</v>
+        <v>0.8936019254848215</v>
       </c>
       <c r="L12" t="n">
         <v>4017</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1054,20 +1054,20 @@
         <v>0.3911677258037258</v>
       </c>
       <c r="I13" t="n">
-        <v>1284.163675947378</v>
+        <v>1337.77672330258</v>
       </c>
       <c r="J13" t="n">
         <v>1272.79</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8936019254848215</v>
+        <v>5.105848042692029</v>
       </c>
       <c r="L13" t="n">
         <v>4017</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1102,20 +1102,20 @@
         <v>0.004262817910258185</v>
       </c>
       <c r="I14" t="n">
-        <v>18.3070230886413</v>
+        <v>18.38052272035049</v>
       </c>
       <c r="J14" t="n">
         <v>17.68</v>
       </c>
       <c r="K14" t="n">
-        <v>3.546510682360293</v>
+        <v>3.962232581167924</v>
       </c>
       <c r="L14" t="n">
         <v>2880</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1150,20 +1150,20 @@
         <v>0.004262817910258185</v>
       </c>
       <c r="I15" t="n">
-        <v>18.38052272035049</v>
+        <v>17.95554618115166</v>
       </c>
       <c r="J15" t="n">
         <v>17.68</v>
       </c>
       <c r="K15" t="n">
-        <v>3.962232581167924</v>
+        <v>1.558519124161006</v>
       </c>
       <c r="L15" t="n">
         <v>2880</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1198,20 +1198,20 @@
         <v>0.004262817910258185</v>
       </c>
       <c r="I16" t="n">
-        <v>17.95554618115166</v>
+        <v>18.3070230886413</v>
       </c>
       <c r="J16" t="n">
         <v>17.68</v>
       </c>
       <c r="K16" t="n">
-        <v>1.558519124161006</v>
+        <v>3.546510682360293</v>
       </c>
       <c r="L16" t="n">
         <v>2880</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1246,20 +1246,20 @@
         <v>0.09143967623372193</v>
       </c>
       <c r="I17" t="n">
-        <v>246.46855764059</v>
+        <v>231.4806023812804</v>
       </c>
       <c r="J17" t="n">
         <v>228.81</v>
       </c>
       <c r="K17" t="n">
-        <v>7.717563760583013</v>
+        <v>1.167170307801424</v>
       </c>
       <c r="L17" t="n">
         <v>651</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1294,20 +1294,20 @@
         <v>0.09143967623372193</v>
       </c>
       <c r="I18" t="n">
-        <v>231.4806023812804</v>
+        <v>229.6384141658991</v>
       </c>
       <c r="J18" t="n">
         <v>228.81</v>
       </c>
       <c r="K18" t="n">
-        <v>1.167170307801424</v>
+        <v>0.362053304444343</v>
       </c>
       <c r="L18" t="n">
         <v>651</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1342,20 +1342,20 @@
         <v>0.09143967623372193</v>
       </c>
       <c r="I19" t="n">
-        <v>229.6384141658991</v>
+        <v>246.46855764059</v>
       </c>
       <c r="J19" t="n">
         <v>228.81</v>
       </c>
       <c r="K19" t="n">
-        <v>0.362053304444343</v>
+        <v>7.717563760583013</v>
       </c>
       <c r="L19" t="n">
         <v>651</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1390,20 +1390,20 @@
         <v>6.690624882876648</v>
       </c>
       <c r="I20" t="n">
-        <v>40894.15395601324</v>
+        <v>39007.54317325981</v>
       </c>
       <c r="J20" t="n">
         <v>37606.13</v>
       </c>
       <c r="K20" t="n">
-        <v>8.743319123805747</v>
+        <v>3.726555147418287</v>
       </c>
       <c r="L20" t="n">
         <v>3830</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1438,20 +1438,20 @@
         <v>6.690624882876648</v>
       </c>
       <c r="I21" t="n">
-        <v>39007.54317325981</v>
+        <v>38135.43659841537</v>
       </c>
       <c r="J21" t="n">
         <v>37606.13</v>
       </c>
       <c r="K21" t="n">
-        <v>3.726555147418287</v>
+        <v>1.407500847376131</v>
       </c>
       <c r="L21" t="n">
         <v>3830</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1486,20 +1486,20 @@
         <v>6.690624882876648</v>
       </c>
       <c r="I22" t="n">
-        <v>38135.43659841537</v>
+        <v>40894.15395601324</v>
       </c>
       <c r="J22" t="n">
         <v>37606.13</v>
       </c>
       <c r="K22" t="n">
-        <v>1.407500847376131</v>
+        <v>8.743319123805747</v>
       </c>
       <c r="L22" t="n">
         <v>3830</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1534,20 +1534,20 @@
         <v>88.17349159728886</v>
       </c>
       <c r="I23" t="n">
-        <v>39726.07873629942</v>
+        <v>43445.26099786635</v>
       </c>
       <c r="J23" t="n">
         <v>40245.77</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.291294125321929</v>
+        <v>7.949881435654849</v>
       </c>
       <c r="L23" t="n">
         <v>662</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1582,20 +1582,20 @@
         <v>88.17349159728886</v>
       </c>
       <c r="I24" t="n">
-        <v>43445.26099786635</v>
+        <v>43506.71022596335</v>
       </c>
       <c r="J24" t="n">
         <v>40245.77</v>
       </c>
       <c r="K24" t="n">
-        <v>7.949881435654849</v>
+        <v>8.102566371480414</v>
       </c>
       <c r="L24" t="n">
         <v>662</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1630,20 +1630,20 @@
         <v>88.17349159728886</v>
       </c>
       <c r="I25" t="n">
-        <v>43506.71022596335</v>
+        <v>39726.07873629942</v>
       </c>
       <c r="J25" t="n">
         <v>40245.77</v>
       </c>
       <c r="K25" t="n">
-        <v>8.102566371480414</v>
+        <v>-1.291294125321929</v>
       </c>
       <c r="L25" t="n">
         <v>662</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -1678,20 +1678,20 @@
         <v>1.920064544573974</v>
       </c>
       <c r="I26" t="n">
-        <v>6847.031351194457</v>
+        <v>7153.999070745689</v>
       </c>
       <c r="J26" t="n">
         <v>6620.23</v>
       </c>
       <c r="K26" t="n">
-        <v>3.425883257748707</v>
+        <v>8.062696775575606</v>
       </c>
       <c r="L26" t="n">
         <v>525</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -1726,20 +1726,20 @@
         <v>1.920064544573974</v>
       </c>
       <c r="I27" t="n">
-        <v>7153.999070745689</v>
+        <v>6834.913640008124</v>
       </c>
       <c r="J27" t="n">
         <v>6620.23</v>
       </c>
       <c r="K27" t="n">
-        <v>8.062696775575606</v>
+        <v>3.242842620394226</v>
       </c>
       <c r="L27" t="n">
         <v>525</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -1774,20 +1774,20 @@
         <v>1.920064544573974</v>
       </c>
       <c r="I28" t="n">
-        <v>6834.913640008124</v>
+        <v>6847.031351194457</v>
       </c>
       <c r="J28" t="n">
         <v>6620.23</v>
       </c>
       <c r="K28" t="n">
-        <v>3.242842620394226</v>
+        <v>3.425883257748707</v>
       </c>
       <c r="L28" t="n">
         <v>525</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -1822,20 +1822,20 @@
         <v>-8.087782592076158</v>
       </c>
       <c r="I29" t="n">
-        <v>5350.65320107886</v>
+        <v>7786.847505475436</v>
       </c>
       <c r="J29" t="n">
         <v>5978.55</v>
       </c>
       <c r="K29" t="n">
-        <v>-10.50249306138011</v>
+        <v>30.24642271914488</v>
       </c>
       <c r="L29" t="n">
         <v>63</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -1870,20 +1870,20 @@
         <v>-8.087782592076158</v>
       </c>
       <c r="I30" t="n">
-        <v>7786.847505475436</v>
+        <v>6765.298752737426</v>
       </c>
       <c r="J30" t="n">
         <v>5978.55</v>
       </c>
       <c r="K30" t="n">
-        <v>30.24642271914488</v>
+        <v>13.15952451242235</v>
       </c>
       <c r="L30" t="n">
         <v>63</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -1918,20 +1918,20 @@
         <v>-8.087782592076158</v>
       </c>
       <c r="I31" t="n">
-        <v>6765.298752737426</v>
+        <v>5350.65320107886</v>
       </c>
       <c r="J31" t="n">
         <v>5978.55</v>
       </c>
       <c r="K31" t="n">
-        <v>13.15952451242235</v>
+        <v>-10.50249306138011</v>
       </c>
       <c r="L31" t="n">
         <v>63</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -1966,20 +1966,20 @@
         <v>-0.3021932832712498</v>
       </c>
       <c r="I32" t="n">
-        <v>5083.334610110132</v>
+        <v>6440.426803250486</v>
       </c>
       <c r="J32" t="n">
         <v>5333.39</v>
       </c>
       <c r="K32" t="n">
-        <v>-4.688488745242125</v>
+        <v>20.75671952080169</v>
       </c>
       <c r="L32" t="n">
         <v>2322</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2014,20 +2014,20 @@
         <v>-0.3021932832712498</v>
       </c>
       <c r="I33" t="n">
-        <v>6440.426803250486</v>
+        <v>5756.81348344735</v>
       </c>
       <c r="J33" t="n">
         <v>5333.39</v>
       </c>
       <c r="K33" t="n">
-        <v>20.75671952080169</v>
+        <v>7.939105961636961</v>
       </c>
       <c r="L33" t="n">
         <v>2322</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2062,20 +2062,20 @@
         <v>-0.3021932832712498</v>
       </c>
       <c r="I34" t="n">
-        <v>5756.81348344735</v>
+        <v>5083.334610110132</v>
       </c>
       <c r="J34" t="n">
         <v>5333.39</v>
       </c>
       <c r="K34" t="n">
-        <v>7.939105961636961</v>
+        <v>-4.688488745242125</v>
       </c>
       <c r="L34" t="n">
         <v>2322</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2110,20 +2110,20 @@
         <v>-35.51635858193741</v>
       </c>
       <c r="I35" t="n">
-        <v>29569.51173131708</v>
+        <v>44348.03472750679</v>
       </c>
       <c r="J35" t="n">
         <v>34271.45</v>
       </c>
       <c r="K35" t="n">
-        <v>-13.71969458159172</v>
+        <v>29.40227135854128</v>
       </c>
       <c r="L35" t="n">
         <v>3823</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2158,20 +2158,20 @@
         <v>-35.51635858193741</v>
       </c>
       <c r="I36" t="n">
-        <v>44348.03472750679</v>
+        <v>38176.462301156</v>
       </c>
       <c r="J36" t="n">
         <v>34271.45</v>
       </c>
       <c r="K36" t="n">
-        <v>29.40227135854128</v>
+        <v>11.39435974012191</v>
       </c>
       <c r="L36" t="n">
         <v>3823</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2206,20 +2206,20 @@
         <v>-35.51635858193741</v>
       </c>
       <c r="I37" t="n">
-        <v>38176.462301156</v>
+        <v>29569.51173131708</v>
       </c>
       <c r="J37" t="n">
         <v>34271.45</v>
       </c>
       <c r="K37" t="n">
-        <v>11.39435974012191</v>
+        <v>-13.71969458159172</v>
       </c>
       <c r="L37" t="n">
         <v>3823</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2254,20 +2254,20 @@
         <v>-29.56231864869513</v>
       </c>
       <c r="I38" t="n">
-        <v>7859.17580535597</v>
+        <v>20796.14016769527</v>
       </c>
       <c r="J38" t="n">
         <v>13738.61</v>
       </c>
       <c r="K38" t="n">
-        <v>-42.79497121356549</v>
+        <v>51.37004520614001</v>
       </c>
       <c r="L38" t="n">
         <v>4394</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2302,20 +2302,20 @@
         <v>-29.56231864869513</v>
       </c>
       <c r="I39" t="n">
-        <v>20796.14016769527</v>
+        <v>17217.77523312879</v>
       </c>
       <c r="J39" t="n">
         <v>13738.61</v>
       </c>
       <c r="K39" t="n">
-        <v>51.37004520614001</v>
+        <v>25.32399735583724</v>
       </c>
       <c r="L39" t="n">
         <v>4394</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -2350,20 +2350,20 @@
         <v>-29.56231864869513</v>
       </c>
       <c r="I40" t="n">
-        <v>17217.77523312879</v>
+        <v>7859.17580535597</v>
       </c>
       <c r="J40" t="n">
         <v>13738.61</v>
       </c>
       <c r="K40" t="n">
-        <v>25.32399735583724</v>
+        <v>-42.79497121356549</v>
       </c>
       <c r="L40" t="n">
         <v>4394</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -2398,20 +2398,20 @@
         <v>-1.11250520377104</v>
       </c>
       <c r="I41" t="n">
-        <v>933.6645026030336</v>
+        <v>1618.696533674014</v>
       </c>
       <c r="J41" t="n">
         <v>1149.22</v>
       </c>
       <c r="K41" t="n">
-        <v>-18.7566782162655</v>
+        <v>40.85175455300239</v>
       </c>
       <c r="L41" t="n">
         <v>66</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -2446,20 +2446,20 @@
         <v>-1.11250520377104</v>
       </c>
       <c r="I42" t="n">
-        <v>1618.696533674014</v>
+        <v>1417.039458800573</v>
       </c>
       <c r="J42" t="n">
         <v>1149.22</v>
       </c>
       <c r="K42" t="n">
-        <v>40.85175455300239</v>
+        <v>23.30445509132919</v>
       </c>
       <c r="L42" t="n">
         <v>66</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -2494,20 +2494,20 @@
         <v>-1.11250520377104</v>
       </c>
       <c r="I43" t="n">
-        <v>1417.039458800573</v>
+        <v>933.6645026030336</v>
       </c>
       <c r="J43" t="n">
         <v>1149.22</v>
       </c>
       <c r="K43" t="n">
-        <v>23.30445509132919</v>
+        <v>-18.7566782162655</v>
       </c>
       <c r="L43" t="n">
         <v>66</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -2542,20 +2542,20 @@
         <v>-0.225904272533343</v>
       </c>
       <c r="I44" t="n">
-        <v>654.5008372094478</v>
+        <v>1186.007578266206</v>
       </c>
       <c r="J44" t="n">
         <v>836.0700000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>-21.71698096936288</v>
+        <v>41.85505738349726</v>
       </c>
       <c r="L44" t="n">
         <v>606</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -2590,20 +2590,20 @@
         <v>-0.225904272533343</v>
       </c>
       <c r="I45" t="n">
-        <v>1186.007578266206</v>
+        <v>1063.604131986878</v>
       </c>
       <c r="J45" t="n">
         <v>836.0700000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>41.85505738349726</v>
+        <v>27.21472268911425</v>
       </c>
       <c r="L45" t="n">
         <v>606</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -2638,20 +2638,20 @@
         <v>-0.225904272533343</v>
       </c>
       <c r="I46" t="n">
-        <v>1063.604131986878</v>
+        <v>654.5008372094478</v>
       </c>
       <c r="J46" t="n">
         <v>836.0700000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>27.21472268911425</v>
+        <v>-21.71698096936288</v>
       </c>
       <c r="L46" t="n">
         <v>606</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -2686,20 +2686,20 @@
         <v>-7.127187398348393</v>
       </c>
       <c r="I47" t="n">
-        <v>7443.782511698702</v>
+        <v>12807.4160632225</v>
       </c>
       <c r="J47" t="n">
         <v>9322.049999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>-20.14865279955907</v>
+        <v>37.38840773459167</v>
       </c>
       <c r="L47" t="n">
         <v>256</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -2734,20 +2734,20 @@
         <v>-7.127187398348393</v>
       </c>
       <c r="I48" t="n">
-        <v>12807.4160632225</v>
+        <v>11288.16047284001</v>
       </c>
       <c r="J48" t="n">
         <v>9322.049999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>37.38840773459167</v>
+        <v>21.09096682425011</v>
       </c>
       <c r="L48" t="n">
         <v>256</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -2782,20 +2782,20 @@
         <v>-7.127187398348393</v>
       </c>
       <c r="I49" t="n">
-        <v>11288.16047284001</v>
+        <v>7443.782511698702</v>
       </c>
       <c r="J49" t="n">
         <v>9322.049999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>21.09096682425011</v>
+        <v>-20.14865279955907</v>
       </c>
       <c r="L49" t="n">
         <v>256</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -2830,13 +2830,13 @@
         <v>0.08202885085535673</v>
       </c>
       <c r="I50" t="n">
-        <v>203.66886667684</v>
+        <v>463.4884206893512</v>
       </c>
       <c r="J50" t="n">
         <v>317.7099914550781</v>
       </c>
       <c r="K50" t="n">
-        <v>-35.89472407082381</v>
+        <v>45.88411858456931</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -2880,13 +2880,13 @@
         <v>0.08202885085535673</v>
       </c>
       <c r="I51" t="n">
-        <v>463.4884206893512</v>
+        <v>423.6912918509177</v>
       </c>
       <c r="J51" t="n">
         <v>317.7099914550781</v>
       </c>
       <c r="K51" t="n">
-        <v>45.88411858456931</v>
+        <v>33.35787455422994</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -2930,13 +2930,13 @@
         <v>0.08202885085535673</v>
       </c>
       <c r="I52" t="n">
-        <v>423.6912918509177</v>
+        <v>203.66886667684</v>
       </c>
       <c r="J52" t="n">
         <v>317.7099914550781</v>
       </c>
       <c r="K52" t="n">
-        <v>33.35787455422994</v>
+        <v>-35.89472407082381</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -2980,13 +2980,13 @@
         <v>10.50158070332192</v>
       </c>
       <c r="I53" t="n">
-        <v>20184.59509317904</v>
+        <v>35377.12598606452</v>
       </c>
       <c r="J53" t="n">
         <v>24392</v>
       </c>
       <c r="K53" t="n">
-        <v>-17.24911818145689</v>
+        <v>45.03577396713892</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -3030,13 +3030,13 @@
         <v>10.50158070332192</v>
       </c>
       <c r="I54" t="n">
-        <v>35377.12598606452</v>
+        <v>32440.82852559793</v>
       </c>
       <c r="J54" t="n">
         <v>24392</v>
       </c>
       <c r="K54" t="n">
-        <v>45.03577396713892</v>
+        <v>32.99782111183145</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -3080,13 +3080,13 @@
         <v>10.50158070332192</v>
       </c>
       <c r="I55" t="n">
-        <v>32440.82852559793</v>
+        <v>20184.59509317904</v>
       </c>
       <c r="J55" t="n">
         <v>24392</v>
       </c>
       <c r="K55" t="n">
-        <v>32.99782111183145</v>
+        <v>-17.24911818145689</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -3130,13 +3130,13 @@
         <v>8.94346636547362</v>
       </c>
       <c r="I56" t="n">
-        <v>6794.668231925833</v>
+        <v>8721.626660807819</v>
       </c>
       <c r="J56" t="n">
         <v>6344.5</v>
       </c>
       <c r="K56" t="n">
-        <v>7.095409124845675</v>
+        <v>37.46751770522214</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -3180,13 +3180,13 @@
         <v>8.94346636547362</v>
       </c>
       <c r="I57" t="n">
-        <v>8721.626660807819</v>
+        <v>8443.96088210907</v>
       </c>
       <c r="J57" t="n">
         <v>6344.5</v>
       </c>
       <c r="K57" t="n">
-        <v>37.46751770522214</v>
+        <v>33.09103762485728</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -3230,13 +3230,13 @@
         <v>8.94346636547362</v>
       </c>
       <c r="I58" t="n">
-        <v>8443.96088210907</v>
+        <v>6794.668231925833</v>
       </c>
       <c r="J58" t="n">
         <v>6344.5</v>
       </c>
       <c r="K58" t="n">
-        <v>33.09103762485728</v>
+        <v>7.095409124845675</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -3280,13 +3280,13 @@
         <v>-6.876290603863388</v>
       </c>
       <c r="I59" t="n">
-        <v>3407.154529790847</v>
+        <v>3657.92737662766</v>
       </c>
       <c r="J59" t="n">
         <v>5502</v>
       </c>
       <c r="K59" t="n">
-        <v>-38.07425427497552</v>
+        <v>-33.51640536845402</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -3330,13 +3330,13 @@
         <v>-6.876290603863388</v>
       </c>
       <c r="I60" t="n">
-        <v>3657.92737662766</v>
+        <v>3467.218706647218</v>
       </c>
       <c r="J60" t="n">
         <v>5502</v>
       </c>
       <c r="K60" t="n">
-        <v>-33.51640536845402</v>
+        <v>-36.98257530630283</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -3380,13 +3380,13 @@
         <v>-6.876290603863388</v>
       </c>
       <c r="I61" t="n">
-        <v>3467.218706647218</v>
+        <v>3407.154529790847</v>
       </c>
       <c r="J61" t="n">
         <v>5502</v>
       </c>
       <c r="K61" t="n">
-        <v>-36.98257530630283</v>
+        <v>-38.07425427497552</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -3430,13 +3430,13 @@
         <v>0.4746665944983847</v>
       </c>
       <c r="I62" t="n">
-        <v>261.0972045179877</v>
+        <v>435.8354861863932</v>
       </c>
       <c r="J62" t="n">
         <v>329.25</v>
       </c>
       <c r="K62" t="n">
-        <v>-20.69940637266889</v>
+        <v>32.37220537172154</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -3480,13 +3480,13 @@
         <v>0.4746665944983847</v>
       </c>
       <c r="I63" t="n">
-        <v>435.8354861863932</v>
+        <v>410.3891817209255</v>
       </c>
       <c r="J63" t="n">
         <v>329.25</v>
       </c>
       <c r="K63" t="n">
-        <v>32.37220537172154</v>
+        <v>24.64363909519378</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -3530,13 +3530,13 @@
         <v>0.4746665944983847</v>
       </c>
       <c r="I64" t="n">
-        <v>410.3891817209255</v>
+        <v>261.0972045179877</v>
       </c>
       <c r="J64" t="n">
         <v>329.25</v>
       </c>
       <c r="K64" t="n">
-        <v>24.64363909519378</v>
+        <v>-20.69940637266889</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -3580,13 +3580,13 @@
         <v>-0.3667128018195575</v>
       </c>
       <c r="I65" t="n">
-        <v>277.320251378829</v>
+        <v>319.4220722538337</v>
       </c>
       <c r="J65" t="n">
         <v>246.0800018310547</v>
       </c>
       <c r="K65" t="n">
-        <v>12.69515983229801</v>
+        <v>29.8041571346914</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -3630,13 +3630,13 @@
         <v>-0.3667128018195575</v>
       </c>
       <c r="I66" t="n">
-        <v>319.4220722538337</v>
+        <v>279.2131142564259</v>
       </c>
       <c r="J66" t="n">
         <v>246.0800018310547</v>
       </c>
       <c r="K66" t="n">
-        <v>29.8041571346914</v>
+        <v>13.46436613248994</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -3680,13 +3680,13 @@
         <v>-0.3667128018195575</v>
       </c>
       <c r="I67" t="n">
-        <v>279.2131142564259</v>
+        <v>277.320251378829</v>
       </c>
       <c r="J67" t="n">
         <v>246.0800018310547</v>
       </c>
       <c r="K67" t="n">
-        <v>13.46436613248994</v>
+        <v>12.69515983229801</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -3730,13 +3730,13 @@
         <v>-1.335221657382137</v>
       </c>
       <c r="I68" t="n">
-        <v>1711.829361983199</v>
+        <v>2279.772393177885</v>
       </c>
       <c r="J68" t="n">
         <v>1842.800048828125</v>
       </c>
       <c r="K68" t="n">
-        <v>-7.107156684102178</v>
+        <v>23.71241224068989</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -3780,13 +3780,13 @@
         <v>-1.335221657382137</v>
       </c>
       <c r="I69" t="n">
-        <v>2279.772393177885</v>
+        <v>2115.540417970232</v>
       </c>
       <c r="J69" t="n">
         <v>1842.800048828125</v>
       </c>
       <c r="K69" t="n">
-        <v>23.71241224068989</v>
+        <v>14.80032352482019</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -3830,13 +3830,13 @@
         <v>-1.335221657382137</v>
       </c>
       <c r="I70" t="n">
-        <v>2115.540417970232</v>
+        <v>1711.829361983199</v>
       </c>
       <c r="J70" t="n">
         <v>1842.800048828125</v>
       </c>
       <c r="K70" t="n">
-        <v>14.80032352482019</v>
+        <v>-7.107156684102178</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -3880,13 +3880,13 @@
         <v>-2.550652240888239</v>
       </c>
       <c r="I71" t="n">
-        <v>11490.06136481726</v>
+        <v>15477.66437433248</v>
       </c>
       <c r="J71" t="n">
         <v>13582</v>
       </c>
       <c r="K71" t="n">
-        <v>-15.40228710928241</v>
+        <v>13.95718137485262</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -3930,13 +3930,13 @@
         <v>-2.550652240888239</v>
       </c>
       <c r="I72" t="n">
-        <v>15477.66437433248</v>
+        <v>14126.24959340838</v>
       </c>
       <c r="J72" t="n">
         <v>13582</v>
       </c>
       <c r="K72" t="n">
-        <v>13.95718137485262</v>
+        <v>4.007138811724231</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -3980,13 +3980,13 @@
         <v>-2.550652240888239</v>
       </c>
       <c r="I73" t="n">
-        <v>14126.24959340838</v>
+        <v>11490.06136481726</v>
       </c>
       <c r="J73" t="n">
         <v>13582</v>
       </c>
       <c r="K73" t="n">
-        <v>4.007138811724231</v>
+        <v>-15.40228710928241</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -4030,13 +4030,13 @@
         <v>-0.6944905329087666</v>
       </c>
       <c r="I74" t="n">
-        <v>611.3379954905406</v>
+        <v>767.2033681190396</v>
       </c>
       <c r="J74" t="n">
         <v>556.0999755859375</v>
       </c>
       <c r="K74" t="n">
-        <v>9.933109571961651</v>
+        <v>37.96141014224501</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -4080,13 +4080,13 @@
         <v>-0.6944905329087666</v>
       </c>
       <c r="I75" t="n">
-        <v>767.2033681190396</v>
+        <v>700.7221597725293</v>
       </c>
       <c r="J75" t="n">
         <v>556.0999755859375</v>
       </c>
       <c r="K75" t="n">
-        <v>37.96141014224501</v>
+        <v>26.00650791869032</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -4130,13 +4130,13 @@
         <v>-0.6944905329087666</v>
       </c>
       <c r="I76" t="n">
-        <v>700.7221597725293</v>
+        <v>611.3379954905406</v>
       </c>
       <c r="J76" t="n">
         <v>556.0999755859375</v>
       </c>
       <c r="K76" t="n">
-        <v>26.00650791869032</v>
+        <v>9.933109571961651</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -4180,13 +4180,13 @@
         <v>0.4065044841883716</v>
       </c>
       <c r="I77" t="n">
-        <v>262.2910561030031</v>
+        <v>488.7534326808081</v>
       </c>
       <c r="J77" t="n">
         <v>330.0799865722656</v>
       </c>
       <c r="K77" t="n">
-        <v>-20.53712228154772</v>
+        <v>48.07121078629939</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -4230,13 +4230,13 @@
         <v>0.4065044841883716</v>
       </c>
       <c r="I78" t="n">
-        <v>488.7534326808081</v>
+        <v>438.0354225059308</v>
       </c>
       <c r="J78" t="n">
         <v>330.0799865722656</v>
       </c>
       <c r="K78" t="n">
-        <v>48.07121078629939</v>
+        <v>32.70584110679795</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -4280,13 +4280,13 @@
         <v>0.4065044841883716</v>
       </c>
       <c r="I79" t="n">
-        <v>438.0354225059308</v>
+        <v>262.2910561030031</v>
       </c>
       <c r="J79" t="n">
         <v>330.0799865722656</v>
       </c>
       <c r="K79" t="n">
-        <v>32.70584110679795</v>
+        <v>-20.53712228154772</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -4330,13 +4330,13 @@
         <v>0.09986979964106873</v>
       </c>
       <c r="I80" t="n">
-        <v>21.13518303437316</v>
+        <v>53.14539868381413</v>
       </c>
       <c r="J80" t="n">
         <v>33.75500106811523</v>
       </c>
       <c r="K80" t="n">
-        <v>-37.3865135073649</v>
+        <v>57.44451785550366</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -4380,13 +4380,13 @@
         <v>0.09986979964106873</v>
       </c>
       <c r="I81" t="n">
-        <v>53.14539868381413</v>
+        <v>50.87486120244505</v>
       </c>
       <c r="J81" t="n">
         <v>33.75500106811523</v>
       </c>
       <c r="K81" t="n">
-        <v>57.44451785550366</v>
+        <v>50.71799612680545</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -4430,13 +4430,13 @@
         <v>0.09986979964106873</v>
       </c>
       <c r="I82" t="n">
-        <v>50.87486120244505</v>
+        <v>21.13518303437316</v>
       </c>
       <c r="J82" t="n">
         <v>33.75500106811523</v>
       </c>
       <c r="K82" t="n">
-        <v>50.71799612680545</v>
+        <v>-37.3865135073649</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -4480,13 +4480,13 @@
         <v>2.221355638860897</v>
       </c>
       <c r="I83" t="n">
-        <v>855.3205138325467</v>
+        <v>600.9524916100825</v>
       </c>
       <c r="J83" t="n">
         <v>489.7999877929688</v>
       </c>
       <c r="K83" t="n">
-        <v>74.62648737224509</v>
+        <v>22.69344764951202</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -4530,13 +4530,13 @@
         <v>2.221355638860897</v>
       </c>
       <c r="I84" t="n">
-        <v>600.9524916100825</v>
+        <v>673.8923180655122</v>
       </c>
       <c r="J84" t="n">
         <v>489.7999877929688</v>
       </c>
       <c r="K84" t="n">
-        <v>22.69344764951202</v>
+        <v>37.58520515732566</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -4580,13 +4580,13 @@
         <v>2.221355638860897</v>
       </c>
       <c r="I85" t="n">
-        <v>673.8923180655122</v>
+        <v>855.3205138325467</v>
       </c>
       <c r="J85" t="n">
         <v>489.7999877929688</v>
       </c>
       <c r="K85" t="n">
-        <v>37.58520515732566</v>
+        <v>74.62648737224509</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -4630,13 +4630,13 @@
         <v>-0.3124204263956961</v>
       </c>
       <c r="I86" t="n">
-        <v>100.5964768862541</v>
+        <v>218.8855987822374</v>
       </c>
       <c r="J86" t="n">
         <v>154.3000030517578</v>
       </c>
       <c r="K86" t="n">
-        <v>-34.804617694978</v>
+        <v>41.85715777906709</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -4680,13 +4680,13 @@
         <v>-0.3124204263956961</v>
       </c>
       <c r="I87" t="n">
-        <v>218.8855987822374</v>
+        <v>181.7299730806365</v>
       </c>
       <c r="J87" t="n">
         <v>154.3000030517578</v>
       </c>
       <c r="K87" t="n">
-        <v>41.85715777906709</v>
+        <v>17.77703790432053</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -4730,13 +4730,13 @@
         <v>-0.3124204263956961</v>
       </c>
       <c r="I88" t="n">
-        <v>181.7299730806365</v>
+        <v>100.5964768862541</v>
       </c>
       <c r="J88" t="n">
         <v>154.3000030517578</v>
       </c>
       <c r="K88" t="n">
-        <v>17.77703790432053</v>
+        <v>-34.804617694978</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -4780,13 +4780,13 @@
         <v>-0.3917660470596529</v>
       </c>
       <c r="I89" t="n">
-        <v>202.3761060469433</v>
+        <v>420.7643903763079</v>
       </c>
       <c r="J89" t="n">
         <v>301.1400146484375</v>
       </c>
       <c r="K89" t="n">
-        <v>-32.79667390492591</v>
+        <v>39.7238393800055</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -4830,13 +4830,13 @@
         <v>-0.3917660470596529</v>
       </c>
       <c r="I90" t="n">
-        <v>420.7643903763079</v>
+        <v>362.4301478979549</v>
       </c>
       <c r="J90" t="n">
         <v>301.1400146484375</v>
       </c>
       <c r="K90" t="n">
-        <v>39.7238393800055</v>
+        <v>20.35270315074862</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -4880,13 +4880,13 @@
         <v>-0.3917660470596529</v>
       </c>
       <c r="I91" t="n">
-        <v>362.4301478979549</v>
+        <v>202.3761060469433</v>
       </c>
       <c r="J91" t="n">
         <v>301.1400146484375</v>
       </c>
       <c r="K91" t="n">
-        <v>20.35270315074862</v>
+        <v>-32.79667390492591</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -4930,13 +4930,13 @@
         <v>-6.675879739760215</v>
       </c>
       <c r="I92" t="n">
-        <v>1819.877138406289</v>
+        <v>4250.44283673153</v>
       </c>
       <c r="J92" t="n">
         <v>2895.5</v>
       </c>
       <c r="K92" t="n">
-        <v>-37.14808708664171</v>
+        <v>46.79477937252739</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -4980,13 +4980,13 @@
         <v>-6.675879739760215</v>
       </c>
       <c r="I93" t="n">
-        <v>4250.44283673153</v>
+        <v>3533.669530555182</v>
       </c>
       <c r="J93" t="n">
         <v>2895.5</v>
       </c>
       <c r="K93" t="n">
-        <v>46.79477937252739</v>
+        <v>22.04004595251878</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -5030,13 +5030,13 @@
         <v>-6.675879739760215</v>
       </c>
       <c r="I94" t="n">
-        <v>3533.669530555182</v>
+        <v>1819.877138406289</v>
       </c>
       <c r="J94" t="n">
         <v>2895.5</v>
       </c>
       <c r="K94" t="n">
-        <v>22.04004595251878</v>
+        <v>-37.14808708664171</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -5080,13 +5080,13 @@
         <v>-2.607609326855898</v>
       </c>
       <c r="I95" t="n">
-        <v>3287.010083021787</v>
+        <v>4404.935483250127</v>
       </c>
       <c r="J95" t="n">
         <v>3478.050048828125</v>
       </c>
       <c r="K95" t="n">
-        <v>-5.492731936698436</v>
+        <v>26.6495714957955</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -5130,13 +5130,13 @@
         <v>-2.607609326855898</v>
       </c>
       <c r="I96" t="n">
-        <v>4404.935483250127</v>
+        <v>3874.907685877969</v>
       </c>
       <c r="J96" t="n">
         <v>3478.050048828125</v>
       </c>
       <c r="K96" t="n">
-        <v>26.6495714957955</v>
+        <v>11.41034865739092</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -5180,13 +5180,13 @@
         <v>-2.607609326855898</v>
       </c>
       <c r="I97" t="n">
-        <v>3874.907685877969</v>
+        <v>3287.010083021787</v>
       </c>
       <c r="J97" t="n">
         <v>3478.050048828125</v>
       </c>
       <c r="K97" t="n">
-        <v>11.41034865739092</v>
+        <v>-5.492731936698436</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -5230,13 +5230,13 @@
         <v>-0.3434347111022474</v>
       </c>
       <c r="I98" t="n">
-        <v>243.603837120184</v>
+        <v>523.6439925439745</v>
       </c>
       <c r="J98" t="n">
         <v>376.260009765625</v>
       </c>
       <c r="K98" t="n">
-        <v>-35.25651655834313</v>
+        <v>39.17078056478975</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -5280,13 +5280,13 @@
         <v>-0.3434347111022474</v>
       </c>
       <c r="I99" t="n">
-        <v>523.6439925439745</v>
+        <v>446.1230104373224</v>
       </c>
       <c r="J99" t="n">
         <v>376.260009765625</v>
       </c>
       <c r="K99" t="n">
-        <v>39.17078056478975</v>
+        <v>18.56774540435895</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -5330,13 +5330,13 @@
         <v>-0.3434347111022474</v>
       </c>
       <c r="I100" t="n">
-        <v>446.1230104373224</v>
+        <v>243.603837120184</v>
       </c>
       <c r="J100" t="n">
         <v>376.260009765625</v>
       </c>
       <c r="K100" t="n">
-        <v>18.56774540435895</v>
+        <v>-35.25651655834313</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -5380,13 +5380,13 @@
         <v>-2.82557535969116</v>
       </c>
       <c r="I101" t="n">
-        <v>577.8667142783104</v>
+        <v>1056.765791721472</v>
       </c>
       <c r="J101" t="n">
         <v>733.5700073242188</v>
       </c>
       <c r="K101" t="n">
-        <v>-21.2254170006015</v>
+        <v>44.05793328112575</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -5430,13 +5430,13 @@
         <v>-2.82557535969116</v>
       </c>
       <c r="I102" t="n">
-        <v>1056.765791721472</v>
+        <v>820.764539780133</v>
       </c>
       <c r="J102" t="n">
         <v>733.5700073242188</v>
       </c>
       <c r="K102" t="n">
-        <v>44.05793328112575</v>
+        <v>11.88632735598969</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -5480,13 +5480,13 @@
         <v>-2.82557535969116</v>
       </c>
       <c r="I103" t="n">
-        <v>820.764539780133</v>
+        <v>577.8667142783104</v>
       </c>
       <c r="J103" t="n">
         <v>733.5700073242188</v>
       </c>
       <c r="K103" t="n">
-        <v>11.88632735598969</v>
+        <v>-21.2254170006015</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -5530,13 +5530,13 @@
         <v>-0.9987342954582803</v>
       </c>
       <c r="I104" t="n">
-        <v>97.67919688368846</v>
+        <v>351.25204332459</v>
       </c>
       <c r="J104" t="n">
         <v>228.4299926757812</v>
       </c>
       <c r="K104" t="n">
-        <v>-57.23889155732365</v>
+        <v>53.76791778089074</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -5580,13 +5580,13 @@
         <v>-0.9987342954582803</v>
       </c>
       <c r="I105" t="n">
-        <v>351.25204332459</v>
+        <v>271.7588232018273</v>
       </c>
       <c r="J105" t="n">
         <v>228.4299926757812</v>
       </c>
       <c r="K105" t="n">
-        <v>53.76791778089074</v>
+        <v>18.96810047511768</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -5630,13 +5630,13 @@
         <v>-0.9987342954582803</v>
       </c>
       <c r="I106" t="n">
-        <v>271.7588232018273</v>
+        <v>97.67919688368846</v>
       </c>
       <c r="J106" t="n">
         <v>228.4299926757812</v>
       </c>
       <c r="K106" t="n">
-        <v>18.96810047511768</v>
+        <v>-57.23889155732365</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -5680,13 +5680,13 @@
         <v>0.3136868510406877</v>
       </c>
       <c r="I107" t="n">
-        <v>211.9253542946421</v>
+        <v>315.4347423563947</v>
       </c>
       <c r="J107" t="n">
         <v>225.1100006103516</v>
       </c>
       <c r="K107" t="n">
-        <v>-5.856979378953109</v>
+        <v>40.12471302969274</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -5730,13 +5730,13 @@
         <v>0.3136868510406877</v>
       </c>
       <c r="I108" t="n">
-        <v>315.4347423563947</v>
+        <v>294.1105266013985</v>
       </c>
       <c r="J108" t="n">
         <v>225.1100006103516</v>
       </c>
       <c r="K108" t="n">
-        <v>40.12471302969274</v>
+        <v>30.6519149766614</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -5780,13 +5780,13 @@
         <v>0.3136868510406877</v>
       </c>
       <c r="I109" t="n">
-        <v>294.1105266013985</v>
+        <v>211.9253542946421</v>
       </c>
       <c r="J109" t="n">
         <v>225.1100006103516</v>
       </c>
       <c r="K109" t="n">
-        <v>30.6519149766614</v>
+        <v>-5.856979378953109</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -5830,13 +5830,13 @@
         <v>0.06998145104960404</v>
       </c>
       <c r="I110" t="n">
-        <v>141.4691200869121</v>
+        <v>245.8383072678903</v>
       </c>
       <c r="J110" t="n">
         <v>159.4900054931641</v>
       </c>
       <c r="K110" t="n">
-        <v>-11.29906877269775</v>
+        <v>54.1402588254517</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -5880,13 +5880,13 @@
         <v>0.06998145104960404</v>
       </c>
       <c r="I111" t="n">
-        <v>245.8383072678903</v>
+        <v>219.0185472863938</v>
       </c>
       <c r="J111" t="n">
         <v>159.4900054931641</v>
       </c>
       <c r="K111" t="n">
-        <v>54.1402588254517</v>
+        <v>37.32430857291631</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -5930,13 +5930,13 @@
         <v>0.06998145104960404</v>
       </c>
       <c r="I112" t="n">
-        <v>219.0185472863938</v>
+        <v>141.4691200869121</v>
       </c>
       <c r="J112" t="n">
         <v>159.4900054931641</v>
       </c>
       <c r="K112" t="n">
-        <v>37.32430857291631</v>
+        <v>-11.29906877269775</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -5980,13 +5980,13 @@
         <v>0.1567107720323261</v>
       </c>
       <c r="I113" t="n">
-        <v>164.2269985690595</v>
+        <v>198.1475451301398</v>
       </c>
       <c r="J113" t="n">
         <v>175.0399932861328</v>
       </c>
       <c r="K113" t="n">
-        <v>-6.177442374210795</v>
+        <v>13.20129840626409</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -6030,13 +6030,13 @@
         <v>0.1567107720323261</v>
       </c>
       <c r="I114" t="n">
-        <v>198.1475451301398</v>
+        <v>187.7486116010051</v>
       </c>
       <c r="J114" t="n">
         <v>175.0399932861328</v>
       </c>
       <c r="K114" t="n">
-        <v>13.20129840626409</v>
+        <v>7.260408365131643</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -6080,13 +6080,13 @@
         <v>0.1567107720323261</v>
       </c>
       <c r="I115" t="n">
-        <v>187.7486116010051</v>
+        <v>164.2269985690595</v>
       </c>
       <c r="J115" t="n">
         <v>175.0399932861328</v>
       </c>
       <c r="K115" t="n">
-        <v>7.260408365131643</v>
+        <v>-6.177442374210795</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -6130,13 +6130,13 @@
         <v>0.2324074426706667</v>
       </c>
       <c r="I116" t="n">
-        <v>135.1411147970346</v>
+        <v>174.8948352554419</v>
       </c>
       <c r="J116" t="n">
         <v>149.25</v>
       </c>
       <c r="K116" t="n">
-        <v>-9.453189415722241</v>
+        <v>17.18246918287567</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -6180,13 +6180,13 @@
         <v>0.2324074426706667</v>
       </c>
       <c r="I117" t="n">
-        <v>174.8948352554419</v>
+        <v>165.9464461935677</v>
       </c>
       <c r="J117" t="n">
         <v>149.25</v>
       </c>
       <c r="K117" t="n">
-        <v>17.18246918287567</v>
+        <v>11.18689862215592</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -6230,13 +6230,13 @@
         <v>0.2324074426706667</v>
       </c>
       <c r="I118" t="n">
-        <v>165.9464461935677</v>
+        <v>135.1411147970346</v>
       </c>
       <c r="J118" t="n">
         <v>149.25</v>
       </c>
       <c r="K118" t="n">
-        <v>11.18689862215592</v>
+        <v>-9.453189415722241</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -6280,13 +6280,13 @@
         <v>-0.5655654842559197</v>
       </c>
       <c r="I119" t="n">
-        <v>364.9380970685415</v>
+        <v>587.0787528803392</v>
       </c>
       <c r="J119" t="n">
         <v>422.8599853515625</v>
       </c>
       <c r="K119" t="n">
-        <v>-13.69765177352149</v>
+        <v>38.83525829294214</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -6330,13 +6330,13 @@
         <v>-0.5655654842559197</v>
       </c>
       <c r="I120" t="n">
-        <v>587.0787528803392</v>
+        <v>511.8145452070184</v>
       </c>
       <c r="J120" t="n">
         <v>422.8599853515625</v>
       </c>
       <c r="K120" t="n">
-        <v>38.83525829294214</v>
+        <v>21.03640990799822</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -6380,13 +6380,13 @@
         <v>-0.5655654842559197</v>
       </c>
       <c r="I121" t="n">
-        <v>511.8145452070184</v>
+        <v>364.9380970685415</v>
       </c>
       <c r="J121" t="n">
         <v>422.8599853515625</v>
       </c>
       <c r="K121" t="n">
-        <v>21.03640990799822</v>
+        <v>-13.69765177352149</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -6430,13 +6430,13 @@
         <v>0.6838108896854712</v>
       </c>
       <c r="I122" t="n">
-        <v>351.7559114271012</v>
+        <v>487.6563091500062</v>
       </c>
       <c r="J122" t="n">
         <v>340.2300109863281</v>
       </c>
       <c r="K122" t="n">
-        <v>3.38767894324179</v>
+        <v>43.33136213830422</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -6480,13 +6480,13 @@
         <v>0.6838108896854712</v>
       </c>
       <c r="I123" t="n">
-        <v>487.6563091500062</v>
+        <v>459.640361059981</v>
       </c>
       <c r="J123" t="n">
         <v>340.2300109863281</v>
       </c>
       <c r="K123" t="n">
-        <v>43.33136213830422</v>
+        <v>35.09694801098875</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -6530,13 +6530,13 @@
         <v>0.6838108896854712</v>
       </c>
       <c r="I124" t="n">
-        <v>459.640361059981</v>
+        <v>351.7559114271012</v>
       </c>
       <c r="J124" t="n">
         <v>340.2300109863281</v>
       </c>
       <c r="K124" t="n">
-        <v>35.09694801098875</v>
+        <v>3.38767894324179</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -6580,13 +6580,13 @@
         <v>0.06319282806064119</v>
       </c>
       <c r="I125" t="n">
-        <v>271.7356865685033</v>
+        <v>447.5932043062846</v>
       </c>
       <c r="J125" t="n">
         <v>330.3399963378906</v>
       </c>
       <c r="K125" t="n">
-        <v>-17.74060374737169</v>
+        <v>35.49470523347124</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -6630,13 +6630,13 @@
         <v>0.06319282806064119</v>
       </c>
       <c r="I126" t="n">
-        <v>447.5932043062846</v>
+        <v>399.7841615330507</v>
       </c>
       <c r="J126" t="n">
         <v>330.3399963378906</v>
       </c>
       <c r="K126" t="n">
-        <v>35.49470523347124</v>
+        <v>21.02202759732692</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -6680,13 +6680,13 @@
         <v>0.06319282806064119</v>
       </c>
       <c r="I127" t="n">
-        <v>399.7841615330507</v>
+        <v>271.7356865685033</v>
       </c>
       <c r="J127" t="n">
         <v>330.3399963378906</v>
       </c>
       <c r="K127" t="n">
-        <v>21.02202759732692</v>
+        <v>-17.74060374737169</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -6730,13 +6730,13 @@
         <v>0.3045123676637989</v>
       </c>
       <c r="I128" t="n">
-        <v>129.1006439135734</v>
+        <v>151.7278388932365</v>
       </c>
       <c r="J128" t="n">
         <v>144.0500030517578</v>
       </c>
       <c r="K128" t="n">
-        <v>-10.37789574555789</v>
+        <v>5.32997964513755</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -6780,13 +6780,13 @@
         <v>0.3045123676637989</v>
       </c>
       <c r="I129" t="n">
-        <v>151.7278388932365</v>
+        <v>152.1941056964491</v>
       </c>
       <c r="J129" t="n">
         <v>144.0500030517578</v>
       </c>
       <c r="K129" t="n">
-        <v>5.32997964513755</v>
+        <v>5.65366363912192</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -6830,13 +6830,13 @@
         <v>0.3045123676637989</v>
       </c>
       <c r="I130" t="n">
-        <v>152.1941056964491</v>
+        <v>129.1006439135734</v>
       </c>
       <c r="J130" t="n">
         <v>144.0500030517578</v>
       </c>
       <c r="K130" t="n">
-        <v>5.65366363912192</v>
+        <v>-10.37789574555789</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -6880,13 +6880,13 @@
         <v>0.01386530535039537</v>
       </c>
       <c r="I131" t="n">
-        <v>35.98728291681579</v>
+        <v>64.29287526914887</v>
       </c>
       <c r="J131" t="n">
         <v>41.04999923706055</v>
       </c>
       <c r="K131" t="n">
-        <v>-12.33304851239573</v>
+        <v>56.62089272611801</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -6930,13 +6930,13 @@
         <v>0.01386530535039537</v>
       </c>
       <c r="I132" t="n">
-        <v>64.29287526914887</v>
+        <v>56.7506957211119</v>
       </c>
       <c r="J132" t="n">
         <v>41.04999923706055</v>
       </c>
       <c r="K132" t="n">
-        <v>56.62089272611801</v>
+        <v>38.24773879624468</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -6980,13 +6980,13 @@
         <v>0.01386530535039537</v>
       </c>
       <c r="I133" t="n">
-        <v>56.7506957211119</v>
+        <v>35.98728291681579</v>
       </c>
       <c r="J133" t="n">
         <v>41.04999923706055</v>
       </c>
       <c r="K133" t="n">
-        <v>38.24773879624468</v>
+        <v>-12.33304851239573</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -7030,13 +7030,13 @@
         <v>-0.2913339525979088</v>
       </c>
       <c r="I134" t="n">
-        <v>243.6903197636076</v>
+        <v>386.3909715089108</v>
       </c>
       <c r="J134" t="n">
         <v>289.1300048828125</v>
       </c>
       <c r="K134" t="n">
-        <v>-15.71600468710334</v>
+        <v>33.63918133142882</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -7080,13 +7080,13 @@
         <v>-0.2913339525979088</v>
       </c>
       <c r="I135" t="n">
-        <v>386.3909715089108</v>
+        <v>328.415842630635</v>
       </c>
       <c r="J135" t="n">
         <v>289.1300048828125</v>
       </c>
       <c r="K135" t="n">
-        <v>33.63918133142882</v>
+        <v>13.58760318346948</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -7130,13 +7130,13 @@
         <v>-0.2913339525979088</v>
       </c>
       <c r="I136" t="n">
-        <v>328.415842630635</v>
+        <v>243.6903197636076</v>
       </c>
       <c r="J136" t="n">
         <v>289.1300048828125</v>
       </c>
       <c r="K136" t="n">
-        <v>13.58760318346948</v>
+        <v>-15.71600468710334</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -7180,13 +7180,13 @@
         <v>0.2448479627520627</v>
       </c>
       <c r="I137" t="n">
-        <v>192.0141548099782</v>
+        <v>225.1443190211403</v>
       </c>
       <c r="J137" t="n">
         <v>181</v>
       </c>
       <c r="K137" t="n">
-        <v>6.085168403302887</v>
+        <v>24.38912653101672</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -7230,13 +7230,13 @@
         <v>0.2448479627520627</v>
       </c>
       <c r="I138" t="n">
-        <v>225.1443190211403</v>
+        <v>212.9213300046161</v>
       </c>
       <c r="J138" t="n">
         <v>181</v>
       </c>
       <c r="K138" t="n">
-        <v>24.38912653101672</v>
+        <v>17.63609392520227</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -7280,13 +7280,13 @@
         <v>0.2448479627520627</v>
       </c>
       <c r="I139" t="n">
-        <v>212.9213300046161</v>
+        <v>192.0141548099782</v>
       </c>
       <c r="J139" t="n">
         <v>181</v>
       </c>
       <c r="K139" t="n">
-        <v>17.63609392520227</v>
+        <v>6.085168403302887</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -7330,13 +7330,13 @@
         <v>-1.097607117634923</v>
       </c>
       <c r="I140" t="n">
-        <v>442.1223661725019</v>
+        <v>911.9406503147596</v>
       </c>
       <c r="J140" t="n">
         <v>666.5900268554688</v>
       </c>
       <c r="K140" t="n">
-        <v>-33.67402025827734</v>
+        <v>36.80682482105124</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -7380,13 +7380,13 @@
         <v>-1.097607117634923</v>
       </c>
       <c r="I141" t="n">
-        <v>911.9406503147596</v>
+        <v>776.6581452789109</v>
       </c>
       <c r="J141" t="n">
         <v>666.5900268554688</v>
       </c>
       <c r="K141" t="n">
-        <v>36.80682482105124</v>
+        <v>16.51211599169444</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -7430,13 +7430,13 @@
         <v>-1.097607117634923</v>
       </c>
       <c r="I142" t="n">
-        <v>776.6581452789109</v>
+        <v>442.1223661725019</v>
       </c>
       <c r="J142" t="n">
         <v>666.5900268554688</v>
       </c>
       <c r="K142" t="n">
-        <v>16.51211599169444</v>
+        <v>-33.67402025827734</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -7480,13 +7480,13 @@
         <v>-0.1533888102642909</v>
       </c>
       <c r="I143" t="n">
-        <v>140.1809308752069</v>
+        <v>215.786417217394</v>
       </c>
       <c r="J143" t="n">
         <v>163.2899932861328</v>
       </c>
       <c r="K143" t="n">
-        <v>-14.15216079434334</v>
+        <v>32.14919841369082</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -7530,13 +7530,13 @@
         <v>-0.1533888102642909</v>
       </c>
       <c r="I144" t="n">
-        <v>215.786417217394</v>
+        <v>189.6365403360869</v>
       </c>
       <c r="J144" t="n">
         <v>163.2899932861328</v>
       </c>
       <c r="K144" t="n">
-        <v>32.14919841369082</v>
+        <v>16.13482034002358</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -7580,13 +7580,13 @@
         <v>-0.1533888102642909</v>
       </c>
       <c r="I145" t="n">
-        <v>189.6365403360869</v>
+        <v>140.1809308752069</v>
       </c>
       <c r="J145" t="n">
         <v>163.2899932861328</v>
       </c>
       <c r="K145" t="n">
-        <v>16.13482034002358</v>
+        <v>-14.15216079434334</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -7630,13 +7630,13 @@
         <v>0.05538150898617752</v>
       </c>
       <c r="I146" t="n">
-        <v>53.63374751373006</v>
+        <v>72.31055356245955</v>
       </c>
       <c r="J146" t="n">
         <v>61.72000122070312</v>
       </c>
       <c r="K146" t="n">
-        <v>-13.1015125519159</v>
+        <v>17.15902808213809</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -7680,13 +7680,13 @@
         <v>0.05538150898617752</v>
       </c>
       <c r="I147" t="n">
-        <v>72.31055356245955</v>
+        <v>67.43373819867185</v>
       </c>
       <c r="J147" t="n">
         <v>61.72000122070312</v>
       </c>
       <c r="K147" t="n">
-        <v>17.15902808213809</v>
+        <v>9.257512742971464</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -7730,13 +7730,13 @@
         <v>0.05538150898617752</v>
       </c>
       <c r="I148" t="n">
-        <v>67.43373819867185</v>
+        <v>53.63374751373006</v>
       </c>
       <c r="J148" t="n">
         <v>61.72000122070312</v>
       </c>
       <c r="K148" t="n">
-        <v>9.257512742971464</v>
+        <v>-13.1015125519159</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -7780,13 +7780,13 @@
         <v>-0.5271308764097828</v>
       </c>
       <c r="I149" t="n">
-        <v>189.4713617606255</v>
+        <v>327.2417554032614</v>
       </c>
       <c r="J149" t="n">
         <v>259.5299987792969</v>
       </c>
       <c r="K149" t="n">
-        <v>-26.99442736800876</v>
+        <v>26.09014639635024</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -7830,13 +7830,13 @@
         <v>-0.5271308764097828</v>
       </c>
       <c r="I150" t="n">
-        <v>327.2417554032614</v>
+        <v>284.982138287184</v>
       </c>
       <c r="J150" t="n">
         <v>259.5299987792969</v>
       </c>
       <c r="K150" t="n">
-        <v>26.09014639635024</v>
+        <v>9.807012533272319</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -7880,13 +7880,13 @@
         <v>-0.5271308764097828</v>
       </c>
       <c r="I151" t="n">
-        <v>284.982138287184</v>
+        <v>189.4713617606255</v>
       </c>
       <c r="J151" t="n">
         <v>259.5299987792969</v>
       </c>
       <c r="K151" t="n">
-        <v>9.807012533272319</v>
+        <v>-26.99442736800876</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -7930,13 +7930,13 @@
         <v>-0.01278713317124266</v>
       </c>
       <c r="I152" t="n">
-        <v>47.16914947074665</v>
+        <v>49.07931499712301</v>
       </c>
       <c r="J152" t="n">
         <v>46.84000015258789</v>
       </c>
       <c r="K152" t="n">
-        <v>0.7027098998431125</v>
+        <v>4.780774631170459</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -7980,13 +7980,13 @@
         <v>-0.01278713317124266</v>
       </c>
       <c r="I153" t="n">
-        <v>49.07931499712301</v>
+        <v>46.8643685736816</v>
       </c>
       <c r="J153" t="n">
         <v>46.84000015258789</v>
       </c>
       <c r="K153" t="n">
-        <v>4.780774631170459</v>
+        <v>0.0520248100220444</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -8030,13 +8030,13 @@
         <v>-0.01278713317124266</v>
       </c>
       <c r="I154" t="n">
-        <v>46.8643685736816</v>
+        <v>47.16914947074665</v>
       </c>
       <c r="J154" t="n">
         <v>46.84000015258789</v>
       </c>
       <c r="K154" t="n">
-        <v>0.0520248100220444</v>
+        <v>0.7027098998431125</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -8080,13 +8080,13 @@
         <v>-0.03816646987066474</v>
       </c>
       <c r="I155" t="n">
-        <v>68.7926716573856</v>
+        <v>111.9788702156155</v>
       </c>
       <c r="J155" t="n">
         <v>90</v>
       </c>
       <c r="K155" t="n">
-        <v>-23.56369815846044</v>
+        <v>24.42096690623943</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -8130,13 +8130,13 @@
         <v>-0.03816646987066474</v>
       </c>
       <c r="I156" t="n">
-        <v>111.9788702156155</v>
+        <v>99.58594489671752</v>
       </c>
       <c r="J156" t="n">
         <v>90</v>
       </c>
       <c r="K156" t="n">
-        <v>24.42096690623943</v>
+        <v>10.65104988524168</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -8180,13 +8180,13 @@
         <v>-0.03816646987066474</v>
       </c>
       <c r="I157" t="n">
-        <v>99.58594489671752</v>
+        <v>68.7926716573856</v>
       </c>
       <c r="J157" t="n">
         <v>90</v>
       </c>
       <c r="K157" t="n">
-        <v>10.65104988524168</v>
+        <v>-23.56369815846044</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -8230,13 +8230,13 @@
         <v>0.1099043100243341</v>
       </c>
       <c r="I158" t="n">
-        <v>52.82940955692069</v>
+        <v>68.55997539473174</v>
       </c>
       <c r="J158" t="n">
         <v>56.72999954223633</v>
       </c>
       <c r="K158" t="n">
-        <v>-6.875709530742347</v>
+        <v>20.85312171329707</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -8280,13 +8280,13 @@
         <v>0.1099043100243341</v>
       </c>
       <c r="I159" t="n">
-        <v>68.55997539473174</v>
+        <v>67.07122230287499</v>
       </c>
       <c r="J159" t="n">
         <v>56.72999954223633</v>
       </c>
       <c r="K159" t="n">
-        <v>20.85312171329707</v>
+        <v>18.22884337049828</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -8330,13 +8330,13 @@
         <v>0.1099043100243341</v>
       </c>
       <c r="I160" t="n">
-        <v>67.07122230287499</v>
+        <v>52.82940955692069</v>
       </c>
       <c r="J160" t="n">
         <v>56.72999954223633</v>
       </c>
       <c r="K160" t="n">
-        <v>18.22884337049828</v>
+        <v>-6.875709530742347</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -8380,13 +8380,13 @@
         <v>0.1740693805071039</v>
       </c>
       <c r="I161" t="n">
-        <v>74.82769581934471</v>
+        <v>59.12554595134656</v>
       </c>
       <c r="J161" t="n">
         <v>54.86999893188477</v>
       </c>
       <c r="K161" t="n">
-        <v>36.37269414244984</v>
+        <v>7.755689998726978</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -8430,13 +8430,13 @@
         <v>0.1740693805071039</v>
       </c>
       <c r="I162" t="n">
-        <v>59.12554595134656</v>
+        <v>61.79493856818405</v>
       </c>
       <c r="J162" t="n">
         <v>54.86999893188477</v>
       </c>
       <c r="K162" t="n">
-        <v>7.755689998726978</v>
+        <v>12.62063016421022</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -8480,13 +8480,13 @@
         <v>0.1740693805071039</v>
       </c>
       <c r="I163" t="n">
-        <v>61.79493856818405</v>
+        <v>74.82769581934471</v>
       </c>
       <c r="J163" t="n">
         <v>54.86999893188477</v>
       </c>
       <c r="K163" t="n">
-        <v>12.62063016421022</v>
+        <v>36.37269414244984</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -8530,13 +8530,13 @@
         <v>0.1083814926838326</v>
       </c>
       <c r="I164" t="n">
-        <v>63.67911580225642</v>
+        <v>66.376504632196</v>
       </c>
       <c r="J164" t="n">
         <v>59.41999816894531</v>
       </c>
       <c r="K164" t="n">
-        <v>7.167818519955871</v>
+        <v>11.70734883476716</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -8580,13 +8580,13 @@
         <v>0.1083814926838326</v>
       </c>
       <c r="I165" t="n">
-        <v>66.376504632196</v>
+        <v>65.34952089098807</v>
       </c>
       <c r="J165" t="n">
         <v>59.41999816894531</v>
       </c>
       <c r="K165" t="n">
-        <v>11.70734883476716</v>
+        <v>9.979001859245606</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>base</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -8630,13 +8630,13 @@
         <v>0.1083814926838326</v>
       </c>
       <c r="I166" t="n">
-        <v>65.34952089098807</v>
+        <v>63.67911580225642</v>
       </c>
       <c r="J166" t="n">
         <v>59.41999816894531</v>
       </c>
       <c r="K166" t="n">
-        <v>9.979001859245606</v>
+        <v>7.167818519955871</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
